--- a/data/georgia_census/mcxeta-mtianeti/tianeti/average_wages.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/tianeti/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A57DC9E-3C29-4D1C-8222-F53190EAE7FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A3A6F0-CF67-496F-848B-829702C62C6C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F678A447-4420-45F4-95DA-7F7A5B0BBEC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1340AF0-E88A-4356-8A1C-413B8AB78347}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F7BC0A-02D6-4CC6-BD55-76125C2DAD9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F06697A-1303-46AD-B038-D015B073E550}"/>
 </file>